--- a/biology/Médecine/Bronchite_chronique/Bronchite_chronique.xlsx
+++ b/biology/Médecine/Bronchite_chronique/Bronchite_chronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bronchite chronique est une inflammation des bronches, qui se définit par une toux productive (avec crachats) tous les matins pendant au moins trois mois de suite dans l’année et au moins deux années consécutives, sans autre cause identifiée.
 </t>
@@ -511,7 +523,9 @@
           <t>Causes ou facteurs de risque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tabac
 Pollution
@@ -545,7 +559,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essoufflements fréquents et rapides lors d'efforts, voire impossibilité de faire des efforts.
 Un pneumologue peut disposer de différents tests :
@@ -581,7 +597,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrêt définitif du tabac comme première mesure efficace.
 Reprise d'une alimentation équilibrée et d'une activité physique régulière dans le cadre de la réadaptation respiratoire.
@@ -613,7 +631,9 @@
           <t>Suivi des patients</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Encouragements à répéter l'intérêt d'une hygiène de vie associant alimentation équilibrée, activité physique adaptée et régulière et surtout l'évitement des situations à risque de reprise du tabac (pas de présence dans les lieux enfumés, etc.).
 Demande de conseils, voire de soutien auprès du médecin de famille.
